--- a/OBD_project-master/OBD_GUI/Smote.xlsx
+++ b/OBD_project-master/OBD_GUI/Smote.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21629"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F605937-6675-4725-A672-38BA4F882141}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B23CB52-EE41-4F16-9727-08330410E056}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="34755" yWindow="4320" windowWidth="21600" windowHeight="12735" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -338,571 +338,451 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:T13"/>
+  <dimension ref="A1:T15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:T9"/>
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A1" s="1">
-        <v>0.73101658391172741</v>
+        <v>0.39007357881686894</v>
       </c>
       <c r="B1" s="1">
-        <v>0.9710168451765927</v>
+        <v>0.46526026964376604</v>
       </c>
       <c r="C1" s="1">
-        <v>0.61228270783742988</v>
+        <v>0.31355135826414626</v>
       </c>
       <c r="D1" s="1">
-        <v>0.99956662631659099</v>
+        <v>0.4227750809309887</v>
       </c>
       <c r="E1" s="1">
-        <v>0.82141561255116946</v>
+        <v>0.13127245527515805</v>
       </c>
       <c r="F1" s="1">
-        <v>0.38500885826367282</v>
+        <v>0.62843457980101902</v>
       </c>
       <c r="G1" s="1">
-        <v>0.5739161387788726</v>
+        <v>0.28026050564058202</v>
       </c>
       <c r="H1" s="1">
-        <v>3.4914571641695931E-2</v>
+        <v>0.44632908564554913</v>
       </c>
       <c r="I1" s="1">
-        <v>0.88065785249830164</v>
+        <v>0.53706047162053705</v>
       </c>
       <c r="J1" s="1">
-        <v>0.4393091676898464</v>
+        <v>0.33966170948980345</v>
       </c>
       <c r="K1" s="1">
-        <v>0.84615384615384615</v>
+        <v>0.2933968686181076</v>
       </c>
       <c r="L1" s="1">
-        <v>0.47518523370303001</v>
+        <v>0.11009037995281999</v>
       </c>
       <c r="M1" s="1">
-        <v>5.9719234012489991E-2</v>
+        <v>0.30278835318528668</v>
       </c>
       <c r="N1" s="1">
-        <v>0.4138094558302981</v>
+        <v>0.43076230637474294</v>
       </c>
       <c r="O1" s="1">
-        <v>-6.9547661935568099E-4</v>
+        <v>0.67308728176265542</v>
       </c>
       <c r="P1" s="1">
-        <v>0.63030303030303025</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="Q1" s="1">
-        <v>0.281912594054129</v>
+        <v>0.90672153709322689</v>
       </c>
       <c r="R1" s="1">
-        <v>0.24158754360968812</v>
+        <v>0.37100089771624806</v>
       </c>
       <c r="S1" s="1">
-        <v>0.27586206896551729</v>
+        <v>0.28017241379310348</v>
       </c>
       <c r="T1" s="1">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
-        <v>0.68458228810164001</v>
+        <v>0.47485985926351609</v>
       </c>
       <c r="B2" s="1">
-        <v>0.87976977719647387</v>
+        <v>0.66537499175407455</v>
       </c>
       <c r="C2" s="1">
-        <v>0.44120205334465484</v>
+        <v>0.35545114993424648</v>
       </c>
       <c r="D2" s="1">
-        <v>0.82216950292008462</v>
+        <v>0.59490563107361361</v>
       </c>
       <c r="E2" s="1">
-        <v>0.80467348413244599</v>
+        <v>0.37474153292806844</v>
       </c>
       <c r="F2" s="1">
-        <v>0.46562185050326399</v>
+        <v>0.31152729591311407</v>
       </c>
       <c r="G2" s="1">
-        <v>0.92626076789580303</v>
+        <v>-5.9647627045129447E-4</v>
       </c>
       <c r="H2" s="1">
-        <v>-1.5369354694504008E-3</v>
+        <v>0.5233933077201548</v>
       </c>
       <c r="I2" s="1">
-        <v>0.92110351365517529</v>
+        <v>0.5308408530955826</v>
       </c>
       <c r="J2" s="1">
-        <v>-2.1869289685472655E-5</v>
+        <v>0.41815576098745028</v>
       </c>
       <c r="K2" s="1">
-        <v>0.88767869298842761</v>
+        <v>0.20081688223281147</v>
       </c>
       <c r="L2" s="1">
-        <v>0.99999453370016056</v>
+        <v>-8.2601372772539654E-6</v>
       </c>
       <c r="M2" s="1">
-        <v>5.7755048610220051E-2</v>
+        <v>0.41302210253938831</v>
       </c>
       <c r="N2" s="1">
-        <v>0.801056661286356</v>
+        <v>0.29194899897127219</v>
       </c>
       <c r="O2" s="1">
-        <v>8.0014793367128148E-2</v>
+        <v>0.59052519866340647</v>
       </c>
       <c r="P2" s="1">
-        <v>0.77575757575757576</v>
+        <v>0.31515151515151513</v>
       </c>
       <c r="Q2" s="1">
-        <v>0.25633531629916673</v>
+        <v>0.41525238663723102</v>
       </c>
       <c r="R2" s="1">
-        <v>0.43428384637399964</v>
+        <v>0.4370236510651142</v>
       </c>
       <c r="S2" s="1">
-        <v>0.25862068965517243</v>
+        <v>0.16379310344827586</v>
       </c>
       <c r="T2" s="1">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="3" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
-        <v>0.45197625722447626</v>
+        <v>0.76059273230847735</v>
       </c>
       <c r="B3" s="1">
-        <v>0.92669795452181758</v>
+        <v>0.53420841848773604</v>
       </c>
       <c r="C3" s="1">
-        <v>0.33970725316170181</v>
+        <v>0.73560884626437062</v>
       </c>
       <c r="D3" s="1">
-        <v>0.93371680291732195</v>
+        <v>0.44425473148062372</v>
       </c>
       <c r="E3" s="1">
-        <v>0.93714533170989112</v>
+        <v>0.24424224742936967</v>
       </c>
       <c r="F3" s="1">
-        <v>0.45155672552811738</v>
+        <v>0.48687306201506109</v>
       </c>
       <c r="G3" s="1">
-        <v>0.83478432438681571</v>
+        <v>0.34045960954014987</v>
       </c>
       <c r="H3" s="1">
-        <v>0.97578777512576564</v>
+        <v>0.44136285528374625</v>
       </c>
       <c r="I3" s="1">
-        <v>-7.8716976260798303E-6</v>
+        <v>0.5491831539373444</v>
       </c>
       <c r="J3" s="1">
-        <v>0.38733213873784811</v>
+        <v>0.38673999011369248</v>
       </c>
       <c r="K3" s="1">
-        <v>1</v>
+        <v>0.28284547311095987</v>
       </c>
       <c r="L3" s="1">
-        <v>0.84608661876646096</v>
+        <v>0.51866376239964596</v>
       </c>
       <c r="M3" s="1">
-        <v>0.99047626247046572</v>
+        <v>0.39588143802778475</v>
       </c>
       <c r="N3" s="1">
-        <v>0.87639045648638403</v>
+        <v>0.42024971507088654</v>
       </c>
       <c r="O3" s="1">
-        <v>0.86922456731946662</v>
+        <v>0.69377997830413773</v>
       </c>
       <c r="P3" s="1">
-        <v>0.66666666666666663</v>
+        <v>0.49090909090909091</v>
       </c>
       <c r="Q3" s="1">
-        <v>0.17527727969872844</v>
+        <v>0.42275165699436634</v>
       </c>
       <c r="R3" s="1">
-        <v>0.24941599124516856</v>
+        <v>0.15074949839660479</v>
       </c>
       <c r="S3" s="1">
-        <v>0.14655172413793102</v>
+        <v>0.1767241379310345</v>
       </c>
       <c r="T3" s="1">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
-        <v>0.29957909936189864</v>
+        <v>0.39007357881686894</v>
       </c>
       <c r="B4" s="1">
-        <v>0.95683063589414907</v>
+        <v>0.46526026964376604</v>
       </c>
       <c r="C4" s="1">
-        <v>0.22995609881704362</v>
+        <v>0.31355135826414626</v>
       </c>
       <c r="D4" s="1">
-        <v>0.90981124005265979</v>
+        <v>0.4227750809309887</v>
       </c>
       <c r="E4" s="1">
-        <v>0.74875607697657298</v>
+        <v>0.13127245527515805</v>
       </c>
       <c r="F4" s="1">
-        <v>0.43453358469685066</v>
+        <v>0.62843457980101902</v>
       </c>
       <c r="G4" s="1">
-        <v>0.91083695930976327</v>
+        <v>0.28026050564058202</v>
       </c>
       <c r="H4" s="1">
-        <v>0.97559939159851172</v>
+        <v>0.44632908564554913</v>
       </c>
       <c r="I4" s="1">
-        <v>9.8753595397890651E-2</v>
+        <v>0.53706047162053705</v>
       </c>
       <c r="J4" s="1">
-        <v>0.48262687427912343</v>
+        <v>0.33966170948980345</v>
       </c>
       <c r="K4" s="1">
-        <v>0.86113002042205589</v>
+        <v>0.2933968686181076</v>
       </c>
       <c r="L4" s="1">
-        <v>0.78190782380681767</v>
+        <v>0.11009037995281999</v>
       </c>
       <c r="M4" s="1">
-        <v>0.95712115642875362</v>
+        <v>0.30278835318528668</v>
       </c>
       <c r="N4" s="1">
-        <v>0.95030771617088206</v>
+        <v>0.43076230637474294</v>
       </c>
       <c r="O4" s="1">
-        <v>0.81225353989567151</v>
+        <v>0.67308728176265542</v>
       </c>
       <c r="P4" s="1">
-        <v>0.80606060606060603</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="Q4" s="1">
-        <v>0.22689351193584495</v>
+        <v>0.90672153709322689</v>
       </c>
       <c r="R4" s="1">
-        <v>0.45674505121741293</v>
+        <v>0.37100089771624806</v>
       </c>
       <c r="S4" s="1">
-        <v>0.19827586206896555</v>
+        <v>0.28017241379310348</v>
       </c>
       <c r="T4" s="1">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
-        <v>0.5411298252071608</v>
+        <v>0.47485985926351609</v>
       </c>
       <c r="B5" s="1">
-        <v>0.88143448173278516</v>
+        <v>0.66537499175407455</v>
       </c>
       <c r="C5" s="1">
-        <v>0.35581140871315448</v>
+        <v>0.35545114993424648</v>
       </c>
       <c r="D5" s="1">
-        <v>0.90185897922732428</v>
+        <v>0.59490563107361361</v>
       </c>
       <c r="E5" s="1">
-        <v>0.92431095400174634</v>
+        <v>0.37474153292806844</v>
       </c>
       <c r="F5" s="1">
-        <v>0.57319245654076667</v>
+        <v>0.31152729591311407</v>
       </c>
       <c r="G5" s="1">
-        <v>0.87014313787552078</v>
+        <v>-5.9647627045129447E-4</v>
       </c>
       <c r="H5" s="1">
-        <v>0.88749521722270974</v>
+        <v>0.5233933077201548</v>
       </c>
       <c r="I5" s="1">
-        <v>0.18831868511975414</v>
+        <v>0.5308408530955826</v>
       </c>
       <c r="J5" s="1">
-        <v>0.34693232131562296</v>
+        <v>0.41815576098745028</v>
       </c>
       <c r="K5" s="1">
-        <v>0.97004765146358074</v>
+        <v>0.20081688223281147</v>
       </c>
       <c r="L5" s="1">
-        <v>0.79148556927650382</v>
+        <v>-8.2601372772539654E-6</v>
       </c>
       <c r="M5" s="1">
-        <v>0.98674118230589836</v>
+        <v>0.41302210253938831</v>
       </c>
       <c r="N5" s="1">
-        <v>0.77141012937843256</v>
+        <v>0.29194899897127219</v>
       </c>
       <c r="O5" s="1">
-        <v>0.9067997294037764</v>
+        <v>0.59052519866340647</v>
       </c>
       <c r="P5" s="1">
-        <v>0.70303030303030301</v>
+        <v>0.31515151515151513</v>
       </c>
       <c r="Q5" s="1">
-        <v>0.20281652976703501</v>
+        <v>0.41525238663723102</v>
       </c>
       <c r="R5" s="1">
-        <v>0.33752512554694047</v>
+        <v>0.4370236510651142</v>
       </c>
       <c r="S5" s="1">
-        <v>0.27586206896551729</v>
+        <v>0.16379310344827586</v>
       </c>
       <c r="T5" s="1">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="6" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
-        <v>0.51895523655552744</v>
+        <v>0.76059273230847735</v>
       </c>
       <c r="B6" s="1">
-        <v>0.85004962893297742</v>
+        <v>0.53420841848773604</v>
       </c>
       <c r="C6" s="1">
-        <v>0.35005635813502456</v>
+        <v>0.73560884626437062</v>
       </c>
       <c r="D6" s="1">
-        <v>0.61852004111663017</v>
+        <v>0.44425473148062372</v>
       </c>
       <c r="E6" s="1">
-        <v>0.38892661482700303</v>
+        <v>0.24424224742936967</v>
       </c>
       <c r="F6" s="1">
-        <v>0.5325545111613027</v>
+        <v>0.48687306201506109</v>
       </c>
       <c r="G6" s="1">
-        <v>0.94531677665794589</v>
+        <v>0.34045960954014987</v>
       </c>
       <c r="H6" s="1">
-        <v>1.9758987735785414E-2</v>
+        <v>0.44136285528374625</v>
       </c>
       <c r="I6" s="1">
-        <v>0.89541938043442315</v>
+        <v>0.5491831539373444</v>
       </c>
       <c r="J6" s="1">
-        <v>0.42362537846020759</v>
+        <v>0.38673999011369248</v>
       </c>
       <c r="K6" s="1">
-        <v>0.58066712049012936</v>
+        <v>0.28284547311095987</v>
       </c>
       <c r="L6" s="1">
-        <v>0.82700748657008982</v>
+        <v>0.51866376239964596</v>
       </c>
       <c r="M6" s="1">
-        <v>3.884878910066502E-2</v>
+        <v>0.39588143802778475</v>
       </c>
       <c r="N6" s="1">
-        <v>0.81222195992396373</v>
+        <v>0.42024971507088654</v>
       </c>
       <c r="O6" s="1">
-        <v>9.0016474616273587E-2</v>
+        <v>0.69377997830413773</v>
       </c>
       <c r="P6" s="1">
-        <v>0.8606060606060606</v>
+        <v>0.49090909090909091</v>
       </c>
       <c r="Q6" s="1">
-        <v>0.27898446242754804</v>
+        <v>0.42275165699436634</v>
       </c>
       <c r="R6" s="1">
-        <v>0.55660134715372511</v>
+        <v>0.15074949839660479</v>
       </c>
       <c r="S6" s="1">
-        <v>0.28879310344827586</v>
+        <v>0.1767241379310345</v>
       </c>
       <c r="T6" s="1">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="7" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A7" s="1">
-        <v>0.42483512463873241</v>
-      </c>
-      <c r="B7" s="1">
-        <v>0.99999411188393794</v>
-      </c>
-      <c r="C7" s="1">
-        <v>0.29437689364157776</v>
-      </c>
-      <c r="D7" s="1">
-        <v>0.93000697883947392</v>
-      </c>
-      <c r="E7" s="1">
-        <v>0.71050718058246287</v>
-      </c>
-      <c r="F7" s="1">
-        <v>0.44457310058779398</v>
-      </c>
-      <c r="G7" s="1">
-        <v>0.87886527634412581</v>
-      </c>
-      <c r="H7" s="1">
-        <v>6.0574300646614586E-2</v>
-      </c>
-      <c r="I7" s="1">
-        <v>0.88117959518915179</v>
-      </c>
-      <c r="J7" s="1">
-        <v>0.26889862779021639</v>
-      </c>
-      <c r="K7" s="1">
-        <v>0.74302246426140239</v>
-      </c>
-      <c r="L7" s="1">
-        <v>0.70440637262894756</v>
-      </c>
-      <c r="M7" s="1">
-        <v>0.2053046898293755</v>
-      </c>
-      <c r="N7" s="1">
-        <v>0.8022867152222376</v>
-      </c>
-      <c r="O7" s="1">
-        <v>0.10292209407844292</v>
-      </c>
-      <c r="P7" s="1">
-        <v>0.80606060606060603</v>
-      </c>
-      <c r="Q7" s="1">
-        <v>0.31007626348227307</v>
-      </c>
-      <c r="R7" s="1">
-        <v>0.41038487485448266</v>
-      </c>
-      <c r="S7" s="1">
-        <v>0.31465517241379315</v>
-      </c>
-      <c r="T7" s="1">
-        <v>10</v>
-      </c>
+      <c r="A7" s="1"/>
+      <c r="B7" s="1"/>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1"/>
+      <c r="F7" s="1"/>
+      <c r="G7" s="1"/>
+      <c r="H7" s="1"/>
+      <c r="I7" s="1"/>
+      <c r="J7" s="1"/>
+      <c r="K7" s="1"/>
+      <c r="L7" s="1"/>
+      <c r="M7" s="1"/>
+      <c r="N7" s="1"/>
+      <c r="O7" s="1"/>
+      <c r="P7" s="1"/>
+      <c r="Q7" s="1"/>
+      <c r="R7" s="1"/>
+      <c r="S7" s="1"/>
+      <c r="T7" s="1"/>
     </row>
     <row r="8" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A8" s="1">
-        <v>0.58362927018791422</v>
-      </c>
-      <c r="B8" s="1">
-        <v>0.78955906154827182</v>
-      </c>
-      <c r="C8" s="1">
-        <v>0.39736291779408117</v>
-      </c>
-      <c r="D8" s="1">
-        <v>0.74579249475019915</v>
-      </c>
-      <c r="E8" s="1">
-        <v>0.89180689685115599</v>
-      </c>
-      <c r="F8" s="1">
-        <v>0.41896827787129498</v>
-      </c>
-      <c r="G8" s="1">
-        <v>0.66506954730913637</v>
-      </c>
-      <c r="H8" s="1">
-        <v>0.90281546690192394</v>
-      </c>
-      <c r="I8" s="1">
-        <v>0.10207210632459406</v>
-      </c>
-      <c r="J8" s="1">
-        <v>0.19415008650519031</v>
-      </c>
-      <c r="K8" s="1">
-        <v>0.83696392103471751</v>
-      </c>
-      <c r="L8" s="1">
-        <v>0.80119408890116273</v>
-      </c>
-      <c r="M8" s="1">
-        <v>0.82617298710779163</v>
-      </c>
-      <c r="N8" s="1">
-        <v>0.74530981609789126</v>
-      </c>
-      <c r="O8" s="1">
-        <v>0.84666560846191385</v>
-      </c>
-      <c r="P8" s="1">
-        <v>0.70909090909090911</v>
-      </c>
-      <c r="Q8" s="1">
-        <v>0.18047072327410993</v>
-      </c>
-      <c r="R8" s="1">
-        <v>0.24526681891560653</v>
-      </c>
-      <c r="S8" s="1">
-        <v>0.2198275862068966</v>
-      </c>
-      <c r="T8" s="1">
-        <v>10</v>
-      </c>
+      <c r="A8" s="1"/>
+      <c r="B8" s="1"/>
+      <c r="C8" s="1"/>
+      <c r="D8" s="1"/>
+      <c r="E8" s="1"/>
+      <c r="F8" s="1"/>
+      <c r="G8" s="1"/>
+      <c r="H8" s="1"/>
+      <c r="I8" s="1"/>
+      <c r="J8" s="1"/>
+      <c r="K8" s="1"/>
+      <c r="L8" s="1"/>
+      <c r="M8" s="1"/>
+      <c r="N8" s="1"/>
+      <c r="O8" s="1"/>
+      <c r="P8" s="1"/>
+      <c r="Q8" s="1"/>
+      <c r="R8" s="1"/>
+      <c r="S8" s="1"/>
+      <c r="T8" s="1"/>
     </row>
     <row r="9" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A9" s="1">
-        <v>0.63322861803760611</v>
-      </c>
-      <c r="B9" s="1">
-        <v>0.49373985001981519</v>
-      </c>
-      <c r="C9" s="1">
-        <v>0.5840900793354411</v>
-      </c>
-      <c r="D9" s="1">
-        <v>0.38776986470307045</v>
-      </c>
-      <c r="E9" s="1">
-        <v>0.71209167446051147</v>
-      </c>
-      <c r="F9" s="1">
-        <v>0.89951351936133384</v>
-      </c>
-      <c r="G9" s="1">
-        <v>0.87037892738148004</v>
-      </c>
-      <c r="H9" s="1">
-        <v>0.23505952719153969</v>
-      </c>
-      <c r="I9" s="1">
-        <v>0.97695843317998676</v>
-      </c>
-      <c r="J9" s="1">
-        <v>0.60707553718655216</v>
-      </c>
-      <c r="K9" s="1">
-        <v>0.86010891763104158</v>
-      </c>
-      <c r="L9" s="1">
-        <v>0.79574928013249369</v>
-      </c>
-      <c r="M9" s="1">
-        <v>4.3254509503009665E-2</v>
-      </c>
-      <c r="N9" s="1">
-        <v>0.7036097824770523</v>
-      </c>
-      <c r="O9" s="1">
-        <v>0.41594793213723641</v>
-      </c>
-      <c r="P9" s="1">
-        <v>0.67878787878787883</v>
-      </c>
-      <c r="Q9" s="1">
-        <v>9.6325247853069174E-2</v>
-      </c>
-      <c r="R9" s="1">
-        <v>0.20529490045796617</v>
-      </c>
-      <c r="S9" s="1">
-        <v>0.22413793103448279</v>
-      </c>
-      <c r="T9" s="1">
-        <v>10</v>
-      </c>
+      <c r="A9" s="1"/>
+      <c r="B9" s="1"/>
+      <c r="C9" s="1"/>
+      <c r="D9" s="1"/>
+      <c r="E9" s="1"/>
+      <c r="F9" s="1"/>
+      <c r="G9" s="1"/>
+      <c r="H9" s="1"/>
+      <c r="I9" s="1"/>
+      <c r="J9" s="1"/>
+      <c r="K9" s="1"/>
+      <c r="L9" s="1"/>
+      <c r="M9" s="1"/>
+      <c r="N9" s="1"/>
+      <c r="O9" s="1"/>
+      <c r="P9" s="1"/>
+      <c r="Q9" s="1"/>
+      <c r="R9" s="1"/>
+      <c r="S9" s="1"/>
+      <c r="T9" s="1"/>
     </row>
     <row r="10" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A10" s="1"/>
@@ -992,6 +872,50 @@
       <c r="S13" s="1"/>
       <c r="T13" s="1"/>
     </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A14" s="1"/>
+      <c r="B14" s="1"/>
+      <c r="C14" s="1"/>
+      <c r="D14" s="1"/>
+      <c r="E14" s="1"/>
+      <c r="F14" s="1"/>
+      <c r="G14" s="1"/>
+      <c r="H14" s="1"/>
+      <c r="I14" s="1"/>
+      <c r="J14" s="1"/>
+      <c r="K14" s="1"/>
+      <c r="L14" s="1"/>
+      <c r="M14" s="1"/>
+      <c r="N14" s="1"/>
+      <c r="O14" s="1"/>
+      <c r="P14" s="1"/>
+      <c r="Q14" s="1"/>
+      <c r="R14" s="1"/>
+      <c r="S14" s="1"/>
+      <c r="T14" s="1"/>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A15" s="1"/>
+      <c r="B15" s="1"/>
+      <c r="C15" s="1"/>
+      <c r="D15" s="1"/>
+      <c r="E15" s="1"/>
+      <c r="F15" s="1"/>
+      <c r="G15" s="1"/>
+      <c r="H15" s="1"/>
+      <c r="I15" s="1"/>
+      <c r="J15" s="1"/>
+      <c r="K15" s="1"/>
+      <c r="L15" s="1"/>
+      <c r="M15" s="1"/>
+      <c r="N15" s="1"/>
+      <c r="O15" s="1"/>
+      <c r="P15" s="1"/>
+      <c r="Q15" s="1"/>
+      <c r="R15" s="1"/>
+      <c r="S15" s="1"/>
+      <c r="T15" s="1"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
